--- a/_Experiments/_Surgery/_templates/ECoG-OpenEphysRHD2132_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/ECoG-OpenEphysRHD2132_KK01.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Bregma</t>
   </si>
@@ -186,23 +186,43 @@
     <t>Cerebellum</t>
   </si>
   <si>
-    <t>-1 (Right)</t>
-  </si>
-  <si>
-    <t>+1 (Left)</t>
-  </si>
-  <si>
-    <t>+2.3</t>
-  </si>
-  <si>
-    <t>-2.3</t>
-  </si>
-  <si>
     <t>https://www.jove.com/video/54908/high-density-electroencephalographic-acquisition-rodent-model-using</t>
   </si>
   <si>
+    <t>+2.30</t>
+  </si>
+  <si>
+    <t>+1.00 (Left)</t>
+  </si>
+  <si>
+    <t>-1.00 (Right)</t>
+  </si>
+  <si>
+    <t>-2.30</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">M to L (1.3mm) </t>
+      <t>M to L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1.3mm increments)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -212,9 +232,70 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>→
-A to P (1.3mm)
+      <t xml:space="preserve">→
+A to P </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1.3mm increments)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 ↓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>breg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 0.10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ybreg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 1.00</t>
     </r>
   </si>
 </sst>
@@ -222,10 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,11 +375,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
@@ -332,6 +405,19 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -349,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -457,22 +543,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -519,89 +594,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -844,13 +880,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -879,6 +908,43 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -967,19 +1033,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:G23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:G23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A10:G23"/>
   <sortState ref="A11:F18">
     <sortCondition ref="D6:D14"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="7"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="6"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="5"/>
-    <tableColumn id="4" name="Column1" dataDxfId="4"/>
-    <tableColumn id="5" name="Column2" dataDxfId="3"/>
-    <tableColumn id="6" name="Sequence" dataDxfId="2"/>
-    <tableColumn id="7" name="Done?" dataDxfId="1"/>
+    <tableColumn id="1" name="Location" dataDxfId="6"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="5"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="4"/>
+    <tableColumn id="4" name="Column1" dataDxfId="3"/>
+    <tableColumn id="5" name="Column2" dataDxfId="2"/>
+    <tableColumn id="6" name="Sequence" dataDxfId="1"/>
+    <tableColumn id="7" name="Done?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,12 +1344,12 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -1389,7 +1455,7 @@
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1452,8 +1518,12 @@
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="13">
         <v>1</v>
       </c>
@@ -1461,209 +1531,229 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:7" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="22" t="s">
         <v>30</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30">
+    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="23">
         <f>A15+1.3</f>
         <v>6.3999999999999995</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25">
         <v>27</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="25">
         <v>28</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30">
-        <f t="shared" ref="A14:A20" si="0">A16+1.3</f>
+      <c r="E14" s="26"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="23">
+        <f t="shared" ref="A15:A20" si="0">A16+1.3</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25">
         <v>29</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="25">
         <v>30</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30">
+      <c r="E15" s="26"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25">
         <v>1</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="25">
         <v>2</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30">
+      <c r="E16" s="26"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="25">
         <v>3</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="25">
         <v>4</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="25">
         <v>5</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="26">
         <v>6</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30">
+      <c r="F17" s="18"/>
+      <c r="G17" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="25">
         <v>7</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="25">
         <v>8</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="25">
         <v>9</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="26">
         <v>10</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30">
+      <c r="F18" s="18"/>
+      <c r="G18" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="27">
         <v>11</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="27">
         <v>12</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="27">
         <v>13</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="27">
         <v>14</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30">
+      <c r="F19" s="19"/>
+      <c r="G19" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>-1.4000000000000001</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="27">
         <v>15</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="27">
         <v>16</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="27">
         <v>17</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="27">
         <v>18</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30">
+      <c r="F20" s="19"/>
+      <c r="G20" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="23">
         <f>A22+1.3</f>
         <v>-2.7</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="27">
         <v>19</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="27">
         <v>20</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="27">
         <v>21</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="27">
         <v>22</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30">
+      <c r="F21" s="19"/>
+      <c r="G21" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="23">
         <v>-4</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="27">
         <v>23</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="27">
         <v>24</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="27">
         <v>25</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="27">
         <v>26</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31">
+      <c r="F22" s="19"/>
+      <c r="G22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="24">
         <f>A22-1.3</f>
         <v>-5.3</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28">
         <v>31</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="28">
         <v>32</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1763,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
